--- a/xlsx-templates/transfer.xlsx
+++ b/xlsx-templates/transfer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangchen/Desktop/Labs/oa/backend/xlsx-templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C81DD6-0279-E347-B607-AC3913EAD593}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443F766B-05C7-C044-BC4F-DCF89DE9A3EE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17080" yWindow="460" windowWidth="34120" windowHeight="28340" xr2:uid="{96DFD740-9342-E04D-B102-C08E76873482}"/>
+    <workbookView xWindow="51200" yWindow="-5200" windowWidth="21600" windowHeight="37940" xr2:uid="{96DFD740-9342-E04D-B102-C08E76873482}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>内部调动审批表</t>
   </si>
@@ -36,21 +36,12 @@
     <t>姓  名</t>
   </si>
   <si>
-    <t>自动</t>
-  </si>
-  <si>
     <t>性  别</t>
   </si>
   <si>
-    <t>　选择</t>
-  </si>
-  <si>
     <t>出生日期</t>
   </si>
   <si>
-    <t>手填　</t>
-  </si>
-  <si>
     <t>入司日期</t>
   </si>
   <si>
@@ -63,9 +54,6 @@
     <t>学  历</t>
   </si>
   <si>
-    <t>　大专本科硕士博士MBA EMBA</t>
-  </si>
-  <si>
     <t>专   业</t>
   </si>
   <si>
@@ -82,9 +70,6 @@
   </si>
   <si>
     <t>职务</t>
-  </si>
-  <si>
-    <t>自动　</t>
   </si>
   <si>
     <t>调动原因</t>
@@ -189,6 +174,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -199,16 +187,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -529,8 +514,8 @@
   </sheetPr>
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="163" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="163" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -543,311 +528,299 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="23" customHeight="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
     </row>
     <row r="2" spans="1:14" ht="23" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
     </row>
     <row r="3" spans="1:14" ht="23" customHeight="1">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="2"/>
+      <c r="G3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="L3" s="5"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" ht="23" customHeight="1">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="5" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="5"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:14" ht="23" customHeight="1">
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="1:14" ht="34" customHeight="1">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" ht="23" customHeight="1">
+      <c r="A7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="4"/>
-      <c r="M3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="1:14" ht="23" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="1:14" ht="23" customHeight="1">
-      <c r="A5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" ht="23" customHeight="1">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:14" ht="23" customHeight="1">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" ht="23" customHeight="1">
+      <c r="A10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" ht="23" customHeight="1">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" ht="23" customHeight="1">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" ht="23" customHeight="1">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" ht="23" customHeight="1">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" ht="23" customHeight="1">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="7" t="s">
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="1"/>
-    </row>
-    <row r="6" spans="1:14" ht="34" customHeight="1">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="1"/>
-    </row>
-    <row r="7" spans="1:14" ht="23" customHeight="1">
-      <c r="A7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="1:14" ht="23" customHeight="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="1"/>
-    </row>
-    <row r="9" spans="1:14" ht="23" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="1:14" ht="23" customHeight="1">
-      <c r="A10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="1:14" ht="23" customHeight="1">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="2"/>
-    </row>
-    <row r="12" spans="1:14" ht="23" customHeight="1">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="2"/>
-    </row>
-    <row r="13" spans="1:14" ht="23" customHeight="1">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="2"/>
-    </row>
-    <row r="14" spans="1:14" ht="23" customHeight="1">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="2"/>
-    </row>
-    <row r="15" spans="1:14" ht="23" customHeight="1">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="2"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="K4:L4"/>
     <mergeCell ref="N10:N15"/>
     <mergeCell ref="A1:M2"/>
     <mergeCell ref="A10:C15"/>
@@ -864,18 +837,6 @@
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="K5:M5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
